--- a/src/test/resources/TestData/Hydroflask/hydroURL.xlsx
+++ b/src/test/resources/TestData/Hydroflask/hydroURL.xlsx
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Hydroflask/hydroURL.xlsx
+++ b/src/test/resources/TestData/Hydroflask/hydroURL.xlsx
@@ -1,135 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24201"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_06DF87DA0D9C6E514ACDE580A9D9AFF6A15BB51A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>mahendr.selenium@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>DataSet</t>
   </si>
   <si>
-    <t>FirstName</t>
+    <t>Links</t>
   </si>
   <si>
-    <t>mahendra</t>
-  </si>
-  <si>
-    <t>Mahendra123</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>postcode</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>cardType</t>
-  </si>
-  <si>
-    <t>cardNumber</t>
-  </si>
-  <si>
-    <t>ExpYear</t>
-  </si>
-  <si>
-    <t>ExpMonth</t>
-  </si>
-  <si>
-    <t>cvv</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>VISA</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>PaymentDetails</t>
-  </si>
-  <si>
-    <t>https://hydro-stg-m2.heledigital.com/featured/new-arrivals</t>
-  </si>
-  <si>
-    <t>https://hydro-stg-m2.heledigital.com/featured/trail-series</t>
-  </si>
-  <si>
-    <t>https://hydro-stg-m2.heledigital.com/featured/limited-edition</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>https://hydro-stg-m2.heledigital.com/featured/sale</t>
-  </si>
-  <si>
-    <t>featured</t>
-  </si>
-  <si>
-    <t>newarrivals</t>
-  </si>
-  <si>
-    <t>trailseries</t>
-  </si>
-  <si>
-    <t>limitededition</t>
+    <t>https://jetrails-stg.hydroflask.com/20-oz-wide-mouth
+https://jetrails-stg.hydroflask.com/32-oz-wide-mouth
+https://jetrails-stg.hydroflask.com/32-oz-wide-mouth-w-straw-lid
+https://jetrails-stg.hydroflask.com/40-oz-wide-mouth
+https://jetrails-stg.hydroflask.com/40-oz-wide-mouth-w-straw-lid
+https://jetrails-stg.hydroflask.com/64-oz-wide-mouth
+https://jetrails-stg.hydroflask.com/24-oz-standard-mouth
+https://jetrails-stg.hydroflask.com/21-oz-standard-mouth-w-sport-cap
+https://jetrails-stg.hydroflask.com/21-oz-standard-mouth
+https://jetrails-stg.hydroflask.com/18-oz-standard-mouth
+https://jetrails-stg.hydroflask.com/12-oz-kids-wide-bottle
+https://jetrails-stg.hydroflask.com/24-oz-lightweight-wide-mouth-trail-seriestm
+https://jetrails-stg.hydroflask.com/32-oz-lightweight-wide-mouth-trail-seriestm
+https://jetrails-stg.hydroflask.com/kids-insulated-lunch-box
+https://jetrails-stg.hydroflask.com/12-oz-kids-wide-bottle
+https://jetrails-stg.hydroflask.com/small-packable-bottle-sling
+https://jetrails-stg.hydroflask.com/prism-pop-limited-edition-21-oz-standard-mouth
+https://jetrails-stg.hydroflask.com/24-oz-lightweight-wide-mouth-trail-seriestm
+https://jetrails-stg.hydroflask.com/national-park-foundation-limited-edition-32-oz-wide-mouth
+https://jetrails-stg.hydroflask.com/national-park-foundation-limited-edition-21-oz-standard-mouth
+https://jetrails-stg.hydroflask.com/prism-pop-limited-edition-40-oz-wide-mouth
+https://jetrails-stg.hydroflask.com/32-oz-lightweight-wide-mouth-trail-seriestm
+https://jetrails-stg.hydroflask.com/12-oz-coffee-with-flex-sip-lid
+https://jetrails-stg.hydroflask.com/16-oz-coffee-with-flex-sip-lid
+https://jetrails-stg.hydroflask.com/20-oz-coffee-with-flex-sip-lid
+https://jetrails-stg.hydroflask.com/wide-mouth-flex-sip-lid
+https://jetrails-stg.hydroflask.com/14-l-down-shifttm-hydration-pack
+https://jetrails-stg.hydroflask.com/large-insulated-lunch-box
+https://jetrails-stg.hydroflask.com/small-insulated-lunch-box</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,19 +104,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,155 +401,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.140625" customWidth="1"/>
+    <col min="3" max="3" width="93.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="351.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>12345</v>
-      </c>
-      <c r="K3" s="4">
-        <v>9898989899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="4">
-        <v>2345234523452340</v>
-      </c>
-      <c r="N4" s="3">
-        <v>2023</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="4">
-        <v>345</v>
-      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4"/>
-    <hyperlink ref="G2" r:id="rId5"/>
-    <hyperlink ref="H2" r:id="rId6"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Hydroflask/hydroURL.xlsx
+++ b/src/test/resources/TestData/Hydroflask/hydroURL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_06DF87DA0D9C6E514ACDE580A9D9AFF6A15BB51A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48954631-0D9D-4C08-9084-B2A72CB60A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -37,42 +37,40 @@
     <t>Links</t>
   </si>
   <si>
-    <t>https://jetrails-stg.hydroflask.com/20-oz-wide-mouth
-https://jetrails-stg.hydroflask.com/32-oz-wide-mouth
-https://jetrails-stg.hydroflask.com/32-oz-wide-mouth-w-straw-lid
-https://jetrails-stg.hydroflask.com/40-oz-wide-mouth
-https://jetrails-stg.hydroflask.com/40-oz-wide-mouth-w-straw-lid
-https://jetrails-stg.hydroflask.com/64-oz-wide-mouth
-https://jetrails-stg.hydroflask.com/24-oz-standard-mouth
-https://jetrails-stg.hydroflask.com/21-oz-standard-mouth-w-sport-cap
-https://jetrails-stg.hydroflask.com/21-oz-standard-mouth
-https://jetrails-stg.hydroflask.com/18-oz-standard-mouth
-https://jetrails-stg.hydroflask.com/12-oz-kids-wide-bottle
-https://jetrails-stg.hydroflask.com/24-oz-lightweight-wide-mouth-trail-seriestm
-https://jetrails-stg.hydroflask.com/32-oz-lightweight-wide-mouth-trail-seriestm
-https://jetrails-stg.hydroflask.com/kids-insulated-lunch-box
-https://jetrails-stg.hydroflask.com/12-oz-kids-wide-bottle
-https://jetrails-stg.hydroflask.com/small-packable-bottle-sling
-https://jetrails-stg.hydroflask.com/prism-pop-limited-edition-21-oz-standard-mouth
-https://jetrails-stg.hydroflask.com/24-oz-lightweight-wide-mouth-trail-seriestm
-https://jetrails-stg.hydroflask.com/national-park-foundation-limited-edition-32-oz-wide-mouth
-https://jetrails-stg.hydroflask.com/national-park-foundation-limited-edition-21-oz-standard-mouth
-https://jetrails-stg.hydroflask.com/prism-pop-limited-edition-40-oz-wide-mouth
-https://jetrails-stg.hydroflask.com/32-oz-lightweight-wide-mouth-trail-seriestm
-https://jetrails-stg.hydroflask.com/12-oz-coffee-with-flex-sip-lid
-https://jetrails-stg.hydroflask.com/16-oz-coffee-with-flex-sip-lid
-https://jetrails-stg.hydroflask.com/20-oz-coffee-with-flex-sip-lid
-https://jetrails-stg.hydroflask.com/wide-mouth-flex-sip-lid
-https://jetrails-stg.hydroflask.com/14-l-down-shifttm-hydration-pack
-https://jetrails-stg.hydroflask.com/large-insulated-lunch-box
-https://jetrails-stg.hydroflask.com/small-insulated-lunch-box</t>
+    <t>https://jetrails-stg-upgrade.hydroflask.com/20-oz-wide-mouth
+https://jetrails-stg-upgrade.hydroflask.com/32-oz-wide-mouth
+https://jetrails-stg-upgrade.hydroflask.com/32-oz-wide-mouth-w-straw-lid
+https://jetrails-stg-upgrade.hydroflask.com/40-oz-wide-mouth
+https://jetrails-stg-upgrade.hydroflask.com/40-oz-wide-mouth-w-straw-lid
+https://jetrails-stg-upgrade.hydroflask.com/64-oz-wide-mouth
+https://jetrails-stg-upgrade.hydroflask.com/24-oz-standard-mouth
+https://jetrails-stg-upgrade.hydroflask.com/21-oz-standard-mouth-w-sport-cap
+https://jetrails-stg-upgrade.hydroflask.com/21-oz-standard-mouth
+https://jetrails-stg-upgrade.hydroflask.com/18-oz-standard-mouth
+https://jetrails-stg-upgrade.hydroflask.com/12-oz-kids-wide-bottle
+https://jetrails-stg-upgrade.hydroflask.com/24-oz-lightweight-wide-mouth-trail-series
+https://jetrails-stg-upgrade.hydroflask.com/32-oz-lightweight-wide-mouth-trail-seriestm
+https://jetrails-stg-upgrade.hydroflask.com/kids-insulated-lunch-box
+https://jetrails-stg-upgrade.hydroflask.com/small-packable-bottle-sling
+https://jetrails-stg-upgrade.hydroflask.com/prism-pop-limited-edition-21-oz-standard-mouth
+https://jetrails-stg-upgrade.hydroflask.com/national-park-foundation-limited-edition-32-oz-wide-mouth
+https://jetrails-stg-upgrade.hydroflask.com/national-park-foundation-limited-edition-21-oz-standard-mouth
+https://jetrails-stg-upgrade.hydroflask.com/prism-pop-limited-edition-40-oz-wide-mouth
+https://jetrails-stg-upgrade.hydroflask.com/32-oz-lightweight-wide-mouth-trail-seriestm
+https://jetrails-stg-upgrade.hydroflask.com/12-oz-coffee-with-flex-sip-lid
+https://jetrails-stg-upgrade.hydroflask.com/16-oz-coffee-with-flex-sip-lid
+https://jetrails-stg-upgrade.hydroflask.com/20-oz-coffee-with-flex-sip-lid
+https://jetrails-stg-upgrade.hydroflask.com/wide-mouth-flex-sip-lid
+https://jetrails-stg-upgrade-upgrade.hydroflask.com/14-l-down-shift-hydration-pack?color=sapphire
+https://jetrails-stg-upgrade.hydroflask.com/large-insulated-lunch-box
+https://jetrails-stg-upgrade.hydroflask.com/small-insulated-lunch-box</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,11 +402,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100.140625" customWidth="1"/>
@@ -418,7 +416,7 @@
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +429,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="351.75" customHeight="1">
+    <row r="2" spans="1:7" ht="351.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -440,88 +438,88 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
     </row>
   </sheetData>
